--- a/calculations/Graphene/structure/Status.xlsx
+++ b/calculations/Graphene/structure/Status.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-308.093282</v>
+        <v>-308.093283</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
